--- a/Luban/Config/Datas/Root/Tag.xlsx
+++ b/Luban/Config/Datas/Root/Tag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\Roots\Luban\Config\Datas\PlayerInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DCE83C-1BFF-4612-9E90-92187790F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977EAD52-E451-4523-846A-3E59024730BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="1332" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="2535" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,22 @@
   </si>
   <si>
     <t>是否好特质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是出生时随机的tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifNatrual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否伴侣初始携带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifPatnerNatrual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -159,11 +181,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -444,15 +467,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -471,22 +497,17 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -505,22 +526,17 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -539,45 +555,40 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="M4:R4"/>
+    <mergeCell ref="L4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/Root/Tag.xlsx
+++ b/Luban/Config/Datas/Root/Tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977EAD52-E451-4523-846A-3E59024730BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E772E279-8AC6-4C37-9430-1A11B0691869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2535" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="3450" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>ifPatnerNatrual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生丽质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好漂亮的姐姐~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +478,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,6 +574,30 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>

--- a/Luban/Config/Datas/Root/Tag.xlsx
+++ b/Luban/Config/Datas/Root/Tag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\RootsPinkShark\Luban\Config\Datas\Root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘文韬\Desktop\Datas\Root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E772E279-8AC6-4C37-9430-1A11B0691869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C772CAD-BCD5-4F53-96E5-B8F7E9B36ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="3450" windowWidth="21600" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>##</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,11 +119,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天生丽质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好漂亮的姐姐~</t>
+    <t>修炼奇才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生灵眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七世好人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖灵附体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神仙点化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九阴之人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩祥云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合修炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂强健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识广博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖灵亲和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神力亲和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼魂亲和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光亲和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,18 +523,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -515,7 +563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -544,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -573,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -581,10 +629,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -605,16 +653,168 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
       <c r="S6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
